--- a/src/data/table_1.xlsx
+++ b/src/data/table_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiva\Documents\hmel-and-coffee\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE10166C-A347-435F-A7CE-814437B4B889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC132AC-5AB5-4A6F-BFCA-A0EEB739A38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>+</t>
   </si>
@@ -97,6 +97,61 @@
   </si>
   <si>
     <t>/src/img/png/product/mixtape.png</t>
+  </si>
+  <si>
+    <t>Somnambula</t>
+  </si>
+  <si>
+    <t>Stout-Imperial
+ Milk</t>
+  </si>
+  <si>
+    <t>Mission Of
+Nutrition</t>
+  </si>
+  <si>
+    <t>dieta</t>
+  </si>
+  <si>
+    <t>nitro</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>Stout-Milk</t>
+  </si>
+  <si>
+    <t>stoner</t>
+  </si>
+  <si>
+    <t>Zagovor</t>
+  </si>
+  <si>
+    <t>Stout - Milk</t>
+  </si>
+  <si>
+    <t>Tropical 
+Slasher</t>
+  </si>
+  <si>
+    <t>Sour-Smoothie 
+/Pastry</t>
+  </si>
+  <si>
+    <t>/src/img/png/product/somnambula.png</t>
+  </si>
+  <si>
+    <t>/src/img/png/product/new_england.png</t>
+  </si>
+  <si>
+    <t>/src/img/png/product/nitro.png</t>
+  </si>
+  <si>
+    <t>/src/img/png/product/stoner_milk.png</t>
+  </si>
+  <si>
+    <t>/src/img/png/product/tropical_slasher.png</t>
   </si>
 </sst>
 </file>
@@ -132,12 +187,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -418,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +491,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -589,6 +647,166 @@
       </c>
       <c r="J5" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6">
+        <v>22</v>
+      </c>
+      <c r="H6" s="6">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6">
+        <v>334</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>307</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6">
+        <v>16</v>
+      </c>
+      <c r="I8" s="6">
+        <v>249</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="6">
+        <v>23</v>
+      </c>
+      <c r="H9" s="6">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6">
+        <v>208</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="6">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6">
+        <v>21</v>
+      </c>
+      <c r="I10" s="6">
+        <v>368</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBE3BC2-DC4C-492F-9DBF-BAEA2EAE01C3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
